--- a/水泥.excel/1109/1109(102.1~105.12)EPM.xlsx
+++ b/水泥.excel/1109/1109(102.1~105.12)EPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>營業收入淨額_x</t>
   </si>
@@ -163,283 +163,7 @@
     <t>本月</t>
   </si>
   <si>
-    <t>383,780</t>
-  </si>
-  <si>
-    <t>149,301</t>
-  </si>
-  <si>
-    <t>382,253</t>
-  </si>
-  <si>
-    <t>385,435</t>
-  </si>
-  <si>
-    <t>328,876</t>
-  </si>
-  <si>
-    <t>296,767</t>
-  </si>
-  <si>
-    <t>289,932</t>
-  </si>
-  <si>
-    <t>327,684</t>
-  </si>
-  <si>
-    <t>367,941</t>
-  </si>
-  <si>
-    <t>536,767</t>
-  </si>
-  <si>
-    <t>554,767</t>
-  </si>
-  <si>
-    <t>547,737</t>
-  </si>
-  <si>
-    <t>466,378</t>
-  </si>
-  <si>
-    <t>195,214</t>
-  </si>
-  <si>
-    <t>530,432</t>
-  </si>
-  <si>
-    <t>493,364</t>
-  </si>
-  <si>
-    <t>546,713</t>
-  </si>
-  <si>
-    <t>453,047</t>
-  </si>
-  <si>
-    <t>358,231</t>
-  </si>
-  <si>
-    <t>228,122</t>
-  </si>
-  <si>
-    <t>357,704</t>
-  </si>
-  <si>
-    <t>471,768</t>
-  </si>
-  <si>
-    <t>484,101</t>
-  </si>
-  <si>
-    <t>415,015</t>
-  </si>
-  <si>
-    <t>436,111</t>
-  </si>
-  <si>
-    <t>210,375</t>
-  </si>
-  <si>
-    <t>305,303</t>
-  </si>
-  <si>
-    <t>374,165</t>
-  </si>
-  <si>
-    <t>400,828</t>
-  </si>
-  <si>
-    <t>325,459</t>
-  </si>
-  <si>
-    <t>336,770</t>
-  </si>
-  <si>
-    <t>373,177</t>
-  </si>
-  <si>
-    <t>442,774</t>
-  </si>
-  <si>
-    <t>425,539</t>
-  </si>
-  <si>
-    <t>360,541</t>
-  </si>
-  <si>
-    <t>359,897</t>
-  </si>
-  <si>
-    <t>338,758</t>
-  </si>
-  <si>
-    <t>137,176</t>
-  </si>
-  <si>
-    <t>400,065</t>
-  </si>
-  <si>
-    <t>410,873</t>
-  </si>
-  <si>
-    <t>394,265</t>
-  </si>
-  <si>
-    <t>325,387</t>
-  </si>
-  <si>
-    <t>308,834</t>
-  </si>
-  <si>
-    <t>364,687</t>
-  </si>
-  <si>
-    <t>345,658</t>
-  </si>
-  <si>
-    <t>364,969</t>
-  </si>
-  <si>
-    <t>441,025</t>
-  </si>
-  <si>
-    <t>514,449</t>
-  </si>
-  <si>
     <t>本年累計</t>
-  </si>
-  <si>
-    <t>533,081</t>
-  </si>
-  <si>
-    <t>915,334</t>
-  </si>
-  <si>
-    <t>1,300,769</t>
-  </si>
-  <si>
-    <t>1,629,645</t>
-  </si>
-  <si>
-    <t>1,926,412</t>
-  </si>
-  <si>
-    <t>2,216,344</t>
-  </si>
-  <si>
-    <t>2,544,028</t>
-  </si>
-  <si>
-    <t>2,911,969</t>
-  </si>
-  <si>
-    <t>3,448,736</t>
-  </si>
-  <si>
-    <t>4,003,503</t>
-  </si>
-  <si>
-    <t>4,551,240</t>
-  </si>
-  <si>
-    <t>661,592</t>
-  </si>
-  <si>
-    <t>1,192,024</t>
-  </si>
-  <si>
-    <t>1,685,389</t>
-  </si>
-  <si>
-    <t>2,232,102</t>
-  </si>
-  <si>
-    <t>2,685,148</t>
-  </si>
-  <si>
-    <t>3,043,379</t>
-  </si>
-  <si>
-    <t>3,271,501</t>
-  </si>
-  <si>
-    <t>3,629,205</t>
-  </si>
-  <si>
-    <t>4,100,973</t>
-  </si>
-  <si>
-    <t>4,585,074</t>
-  </si>
-  <si>
-    <t>5,000,089</t>
-  </si>
-  <si>
-    <t>646,486</t>
-  </si>
-  <si>
-    <t>951,789</t>
-  </si>
-  <si>
-    <t>1,325,954</t>
-  </si>
-  <si>
-    <t>1,726,782</t>
-  </si>
-  <si>
-    <t>2,052,241</t>
-  </si>
-  <si>
-    <t>2,389,011</t>
-  </si>
-  <si>
-    <t>2,762,188</t>
-  </si>
-  <si>
-    <t>3,204,962</t>
-  </si>
-  <si>
-    <t>3,630,501</t>
-  </si>
-  <si>
-    <t>3,991,042</t>
-  </si>
-  <si>
-    <t>4,350,939</t>
-  </si>
-  <si>
-    <t>475,934</t>
-  </si>
-  <si>
-    <t>875,999</t>
-  </si>
-  <si>
-    <t>1,286,872</t>
-  </si>
-  <si>
-    <t>1,681,137</t>
-  </si>
-  <si>
-    <t>2,006,524</t>
-  </si>
-  <si>
-    <t>2,315,358</t>
-  </si>
-  <si>
-    <t>2,680,045</t>
-  </si>
-  <si>
-    <t>3,025,703</t>
-  </si>
-  <si>
-    <t>3,390,672</t>
-  </si>
-  <si>
-    <t>3,831,697</t>
-  </si>
-  <si>
-    <t>4,346,146</t>
   </si>
 </sst>
 </file>
@@ -946,298 +670,298 @@
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>96</v>
+      <c r="B2" t="n">
+        <v>383780</v>
+      </c>
+      <c r="C2" t="n">
+        <v>149301</v>
+      </c>
+      <c r="D2" t="n">
+        <v>382253</v>
+      </c>
+      <c r="E2" t="n">
+        <v>385435</v>
+      </c>
+      <c r="F2" t="n">
+        <v>328876</v>
+      </c>
+      <c r="G2" t="n">
+        <v>296767</v>
+      </c>
+      <c r="H2" t="n">
+        <v>289932</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327684</v>
+      </c>
+      <c r="J2" t="n">
+        <v>367941</v>
+      </c>
+      <c r="K2" t="n">
+        <v>536767</v>
+      </c>
+      <c r="L2" t="n">
+        <v>554767</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547737</v>
+      </c>
+      <c r="N2" t="n">
+        <v>466378</v>
+      </c>
+      <c r="O2" t="n">
+        <v>195214</v>
+      </c>
+      <c r="P2" t="n">
+        <v>530432</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>493364</v>
+      </c>
+      <c r="R2" t="n">
+        <v>546713</v>
+      </c>
+      <c r="S2" t="n">
+        <v>453047</v>
+      </c>
+      <c r="T2" t="n">
+        <v>358231</v>
+      </c>
+      <c r="U2" t="n">
+        <v>228122</v>
+      </c>
+      <c r="V2" t="n">
+        <v>357704</v>
+      </c>
+      <c r="W2" t="n">
+        <v>471768</v>
+      </c>
+      <c r="X2" t="n">
+        <v>484101</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>415015</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>436111</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>210375</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>305303</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>374165</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>400828</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>325459</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>336770</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>373177</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>442774</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>425539</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>360541</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>359897</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>338758</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>137176</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>400065</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>410873</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>394265</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>325387</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>308834</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>364687</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>345658</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>364969</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>441025</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>514449</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>141</v>
+      <c r="B3" t="n">
+        <v>383780</v>
+      </c>
+      <c r="C3" t="n">
+        <v>533081</v>
+      </c>
+      <c r="D3" t="n">
+        <v>915334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1300769</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1629645</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1926412</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2216344</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2544028</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2911969</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3448736</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4003503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4551240</v>
+      </c>
+      <c r="N3" t="n">
+        <v>466378</v>
+      </c>
+      <c r="O3" t="n">
+        <v>661592</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1192024</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1685389</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2232102</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2685148</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3043379</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3271501</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3629205</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4100973</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4585074</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5000089</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>436111</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>646486</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>951789</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1325954</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1726782</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2052241</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2389011</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2762188</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3204962</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3630501</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3991042</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4350939</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>338758</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>475934</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>875999</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1286872</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1681137</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2006524</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2315358</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2680045</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3025703</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3390672</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3831697</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4346146</v>
       </c>
     </row>
   </sheetData>
